--- a/todos_resultados_tecnopharma.xlsx
+++ b/todos_resultados_tecnopharma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,18 +459,33 @@
           <t>Valor Dermage</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cliente</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Diferença</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TE675019112BR</t>
+          <t>OS785767316BR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110850</v>
+        <v>101447</v>
       </c>
       <c r="C2" t="n">
-        <v>41.82</v>
+        <v>26.84</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,75 +493,123 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TE675018355BR</t>
+          <t>TE675019112BR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108639</v>
+        <v>110850</v>
       </c>
       <c r="C3" t="n">
-        <v>14.6</v>
+        <v>41.82</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>04/04/2023 18:17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>XENIA LIMA</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>41.82</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TE675018559BR</t>
+          <t>TE675018355BR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109424</v>
+        <v>108639</v>
       </c>
       <c r="C4" t="n">
-        <v>14.62</v>
+        <v>14.6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>JOAO DANIELETTO</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TE675018125BR</t>
+          <t>TE675018559BR</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108162</v>
+        <v>109424</v>
       </c>
       <c r="C5" t="n">
-        <v>17.19</v>
+        <v>14.62</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>27/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CLEA MARA</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4.94</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TE675019055BR</t>
+          <t>TE675018125BR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110683</v>
+        <v>108162</v>
       </c>
       <c r="C6" t="n">
-        <v>14.62</v>
+        <v>17.19</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -554,75 +617,123 @@
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TE675019421BR</t>
+          <t>TE675019055BR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111978</v>
+        <v>110683</v>
       </c>
       <c r="C7" t="n">
         <v>14.62</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>03/04/2023 18:15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>HELEN ARIDA</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4.94</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TE675019130BR</t>
+          <t>TE675019421BR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110846</v>
+        <v>111978</v>
       </c>
       <c r="C8" t="n">
-        <v>17.62</v>
+        <v>14.62</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>14/04/2023 18:24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ANDREIA MARTINS</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4.94</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TE675018165BR</t>
+          <t>TE675019130BR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>108347</v>
+        <v>110846</v>
       </c>
       <c r="C9" t="n">
-        <v>14.64</v>
+        <v>17.62</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>04/04/2023 18:17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>YARA CORREA</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7.940000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TE675018531BR</t>
+          <t>TE675018165BR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109396</v>
+        <v>108347</v>
       </c>
       <c r="C10" t="n">
-        <v>17.64</v>
+        <v>14.64</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -630,56 +741,89 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TE675018372BR</t>
+          <t>TE675018531BR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>108772</v>
+        <v>109396</v>
       </c>
       <c r="C11" t="n">
-        <v>26.82</v>
+        <v>17.64</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>24/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ELIANE AZEVEDO</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7.440000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QP060270433BR</t>
+          <t>TE675018372BR</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>108403</v>
+        <v>108772</v>
       </c>
       <c r="C12" t="n">
-        <v>18.34</v>
+        <v>26.82</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>LUCI ROCHA</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>26.82</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TE675019041BR</t>
+          <t>QP060270433BR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110648</v>
+        <v>108403</v>
       </c>
       <c r="C13" t="n">
-        <v>26.84</v>
+        <v>18.34</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -687,281 +831,494 @@
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TE675018718BR</t>
+          <t>TE675019041BR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109485</v>
+        <v>110648</v>
       </c>
       <c r="C14" t="n">
-        <v>37.41</v>
+        <v>26.84</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>03/04/2023 18:15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>KARLA ASCHOFF SOARES</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>26.84</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>QP060270478BR</t>
+          <t>TE675018718BR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>108651</v>
+        <v>109485</v>
       </c>
       <c r="C15" t="n">
-        <v>19.01</v>
+        <v>37.41</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>LUCIA MARA GARRIDO</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>37.41</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TE675018868BR</t>
+          <t>QP060270478BR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110232</v>
+        <v>108651</v>
       </c>
       <c r="C16" t="n">
-        <v>37.65</v>
+        <v>19.01</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FRANCINE SALDANHA</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1900000000000013</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TE675018956BR</t>
+          <t>TE675018868BR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110141</v>
+        <v>110232</v>
       </c>
       <c r="C17" t="n">
-        <v>10.38</v>
+        <v>37.65</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>MATHEUS NOBRE</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>37.65</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TE675018505BR</t>
+          <t>TE675018956BR</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109312</v>
+        <v>110141</v>
       </c>
       <c r="C18" t="n">
-        <v>27.1</v>
+        <v>10.38</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>PAMELA CAPELA</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7000000000000011</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TE675018430BR</t>
+          <t>TE675018505BR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>109193</v>
+        <v>109312</v>
       </c>
       <c r="C19" t="n">
         <v>27.1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>24/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>JULIA REIS</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TE675018616BR</t>
+          <t>TE675018430BR</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>109487</v>
+        <v>109193</v>
       </c>
       <c r="C20" t="n">
         <v>27.1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>23/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>AMANDA GONCALVES TAYLOR</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TE675018633BR</t>
+          <t>TE675018616BR</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109689</v>
+        <v>109487</v>
       </c>
       <c r="C21" t="n">
-        <v>65.19</v>
+        <v>27.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>DEBORA COSTA</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TE675018655BR</t>
+          <t>TE675018633BR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109686</v>
+        <v>109689</v>
       </c>
       <c r="C22" t="n">
-        <v>27.1</v>
+        <v>65.19</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>MONIZE PEREZ DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>65.19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TE675018752BR</t>
+          <t>TE675018655BR</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>109691</v>
+        <v>109686</v>
       </c>
       <c r="C23" t="n">
         <v>27.1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>CAROLINE FADUL</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TE675018514BR</t>
+          <t>TE675018752BR</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109313</v>
+        <v>109691</v>
       </c>
       <c r="C24" t="n">
         <v>27.1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ELOAH ALVES</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TE675018426BR</t>
+          <t>TE675018514BR</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>109196</v>
+        <v>109313</v>
       </c>
       <c r="C25" t="n">
         <v>27.1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>24/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>LEONARDO COELHO</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TE675018942BR</t>
+          <t>TE675018426BR</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>110275</v>
+        <v>109196</v>
       </c>
       <c r="C26" t="n">
         <v>27.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>23/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CASSIA COSTA</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TE675018196BR</t>
+          <t>TE675018942BR</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>108407</v>
+        <v>110275</v>
       </c>
       <c r="C27" t="n">
         <v>27.1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>VANESSA CABRAL RESENDE</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TE675018253BR</t>
+          <t>TE675018196BR</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108625</v>
+        <v>108407</v>
       </c>
       <c r="C28" t="n">
         <v>27.1</v>
@@ -972,455 +1329,803 @@
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TE675018315BR</t>
+          <t>TE675018253BR</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>108627</v>
+        <v>108625</v>
       </c>
       <c r="C29" t="n">
-        <v>37.66</v>
+        <v>27.1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>ERIK DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TE675019191BR</t>
+          <t>TE675018315BR</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111014</v>
+        <v>108627</v>
       </c>
       <c r="C30" t="n">
-        <v>42.57</v>
+        <v>37.66</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ALINE APARECIDA SANTOS</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>37.66</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TE675019157BR</t>
+          <t>TE675019191BR</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110918</v>
+        <v>111014</v>
       </c>
       <c r="C31" t="n">
-        <v>27.14</v>
+        <v>42.57</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>LARA DE MELLO</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>42.57</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TE675019205BR</t>
+          <t>TE675019157BR</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110930</v>
+        <v>110918</v>
       </c>
       <c r="C32" t="n">
         <v>27.14</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>05/04/2023 18:03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>GEANE DOS SANTOS FREIRE</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>27.14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TE675018854BR</t>
+          <t>TE675019205BR</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110216</v>
+        <v>110930</v>
       </c>
       <c r="C33" t="n">
-        <v>40.81</v>
+        <v>27.14</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>CAMIL CARNEVALL</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>27.14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>QP060270901BR</t>
+          <t>TE675018854BR</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111207</v>
+        <v>110216</v>
       </c>
       <c r="C34" t="n">
-        <v>16.75</v>
+        <v>40.81</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>MARILENE DA SILVA RODRIGUES</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>40.81</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TE675018390BR</t>
+          <t>QP060270901BR</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109099</v>
+        <v>111207</v>
       </c>
       <c r="C35" t="n">
-        <v>20.12</v>
+        <v>16.75</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10/04/2023 18:02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ANTONIO JUNIOR</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0.7599999999999998</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TE675019259BR</t>
+          <t>TE675018390BR</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110932</v>
+        <v>109099</v>
       </c>
       <c r="C36" t="n">
-        <v>37.76</v>
+        <v>20.12</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>22/03/2023 18:02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ERICK FERNANDES</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0.2399999999999984</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>QP060270504BR</t>
+          <t>TE675019259BR</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108911</v>
+        <v>110932</v>
       </c>
       <c r="C37" t="n">
-        <v>18.78</v>
+        <v>37.76</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>PATRICIA PIRES</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>37.76</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TE675018338BR</t>
+          <t>QP060270504BR</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>108663</v>
+        <v>108911</v>
       </c>
       <c r="C38" t="n">
-        <v>10.69</v>
+        <v>18.78</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>21/03/2023 16:07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>KARINA CALIXTO DOS REIS</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5100000000000016</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TE675019174BR</t>
+          <t>TE675018338BR</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>111022</v>
+        <v>108663</v>
       </c>
       <c r="C39" t="n">
-        <v>10.72</v>
+        <v>10.69</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>GRACIELA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0.4900000000000002</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TE675018810BR</t>
+          <t>TE675019174BR</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110235</v>
+        <v>111022</v>
       </c>
       <c r="C40" t="n">
-        <v>38.01</v>
+        <v>10.72</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>RAQUEL FERREIRA</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1.040000000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TE675018960BR</t>
+          <t>TE675018810BR</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>110234</v>
+        <v>110235</v>
       </c>
       <c r="C41" t="n">
-        <v>27.45</v>
+        <v>38.01</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>SHEILA ALVES</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>38.01</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TE675018275BR</t>
+          <t>TE675018960BR</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>108626</v>
+        <v>110234</v>
       </c>
       <c r="C42" t="n">
         <v>27.45</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ANA BETARIZ DE CARVALHO</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>27.45</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TE675018491BR</t>
+          <t>TE675018275BR</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109323</v>
+        <v>108626</v>
       </c>
       <c r="C43" t="n">
-        <v>38.01</v>
+        <v>27.45</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>TALITA MORANDI</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>27.45</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TE675018443BR</t>
+          <t>TE675018491BR</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>109245</v>
+        <v>109323</v>
       </c>
       <c r="C44" t="n">
-        <v>27.45</v>
+        <v>38.01</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>24/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NUBIA SANTOS</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>38.01</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TE675018412BR</t>
+          <t>TE675018443BR</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>109246</v>
+        <v>109245</v>
       </c>
       <c r="C45" t="n">
         <v>27.45</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>23/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ADRIANA RODRIGUES DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>27.45</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>QP060270844BR</t>
+          <t>TE675018412BR</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110711</v>
+        <v>109246</v>
       </c>
       <c r="C46" t="n">
-        <v>17.06</v>
+        <v>27.45</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>23/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ERICA LIMA</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>27.45</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TE675018465BR</t>
+          <t>QP060270844BR</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>109288</v>
+        <v>110711</v>
       </c>
       <c r="C47" t="n">
-        <v>28.6</v>
+        <v>17.06</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>03/04/2023 17:07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>KAREN GUARIENTO</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1.069999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>QP060270610BR</t>
+          <t>TE675018465BR</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>109493</v>
+        <v>109288</v>
       </c>
       <c r="C48" t="n">
-        <v>22.55</v>
+        <v>28.6</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>24/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>STELLA KOCHEN</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0.7800000000000011</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>QP060270963BR</t>
+          <t>QP060270610BR</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>111986</v>
+        <v>109493</v>
       </c>
       <c r="C49" t="n">
-        <v>19.02</v>
+        <v>22.55</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>TATIANA CAMPOLINA</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1.129999999999999</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TE675018369BR</t>
+          <t>QP060270963BR</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>108834</v>
+        <v>111986</v>
       </c>
       <c r="C50" t="n">
-        <v>27.55</v>
+        <v>19.02</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>14/04/2023 16:25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ALYNE GUEDES</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1.129999999999999</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TE675018324BR</t>
+          <t>TE675018369BR</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>108422</v>
+        <v>108834</v>
       </c>
       <c r="C51" t="n">
-        <v>52.65</v>
+        <v>27.55</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>PRISCILA BALEEIRO</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>27.55</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TE675018341BR</t>
+          <t>TE675018324BR</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>108624</v>
+        <v>108422</v>
       </c>
       <c r="C52" t="n">
-        <v>42.98</v>
+        <v>52.65</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1428,189 +2133,327 @@
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>QP060270535BR</t>
+          <t>TE675018341BR</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>108787</v>
+        <v>108624</v>
       </c>
       <c r="C53" t="n">
-        <v>52.56</v>
+        <v>42.98</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>BEATRIZ CRISTIANE COSTA</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>42.98</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>QP060270950BR</t>
+          <t>QP060270535BR</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>112022</v>
+        <v>108787</v>
       </c>
       <c r="C54" t="n">
-        <v>22.61</v>
+        <v>52.56</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>21/03/2023 16:06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>EMMILY PUREZA</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>29.71</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>QP060270645BR</t>
+          <t>QP060270950BR</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>109499</v>
+        <v>112022</v>
       </c>
       <c r="C55" t="n">
-        <v>19.63</v>
+        <v>22.61</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>14/04/2023 16:25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>VIRGINIA SOARES</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>22.61</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TE675018885BR</t>
+          <t>QP060270645BR</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>110167</v>
+        <v>109499</v>
       </c>
       <c r="C56" t="n">
-        <v>54.62</v>
+        <v>19.63</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>LAURITA SILVA</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1.209999999999997</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TE675018593BR</t>
+          <t>TE675018885BR</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>109508</v>
+        <v>110167</v>
       </c>
       <c r="C57" t="n">
-        <v>20.57</v>
+        <v>54.62</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>53.41</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>MONIQUE BALTAZAR</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1.210000000000001</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TE675018911BR</t>
+          <t>TE675018593BR</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>110295</v>
+        <v>109508</v>
       </c>
       <c r="C58" t="n">
-        <v>10.95</v>
+        <v>20.57</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>RAFAELA FELIX</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1.260000000000002</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TE675018766BR</t>
+          <t>TE675018911BR</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>109490</v>
+        <v>110295</v>
       </c>
       <c r="C59" t="n">
-        <v>27.68</v>
+        <v>10.95</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>LUANDA MORANDI</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TE675018823BR</t>
+          <t>TE675018766BR</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>110230</v>
+        <v>109490</v>
       </c>
       <c r="C60" t="n">
         <v>27.68</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>KARINA KIYAN</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1.289999999999999</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TE675018134BR</t>
+          <t>TE675018823BR</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>107998</v>
+        <v>110230</v>
       </c>
       <c r="C61" t="n">
-        <v>45.37</v>
+        <v>27.68</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>RENATA BALTHAZAR</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>27.68</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TE675018562BR</t>
+          <t>TE675018134BR</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>109692</v>
+        <v>107998</v>
       </c>
       <c r="C62" t="n">
-        <v>43.11</v>
+        <v>45.37</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1618,113 +2461,191 @@
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TE675018647BR</t>
+          <t>TE675018562BR</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>109484</v>
+        <v>109692</v>
       </c>
       <c r="C63" t="n">
-        <v>27.68</v>
+        <v>43.11</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>JULI ROZA</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>43.11</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TE675018681BR</t>
+          <t>TE675018647BR</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>109690</v>
+        <v>109484</v>
       </c>
       <c r="C64" t="n">
         <v>27.68</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>MARCELA PAPA</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>27.68</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TE675019090BR</t>
+          <t>TE675018681BR</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>110613</v>
+        <v>109690</v>
       </c>
       <c r="C65" t="n">
-        <v>27.67</v>
+        <v>27.68</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>MARINA MORAES</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>27.68</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TE675018488BR</t>
+          <t>TE675019090BR</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>109308</v>
+        <v>110613</v>
       </c>
       <c r="C66" t="n">
-        <v>27.68</v>
+        <v>27.67</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>03/04/2023 18:15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>CAROLINA KOWALSKI</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>27.67</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TE675018222BR</t>
+          <t>TE675018488BR</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>108452</v>
+        <v>109308</v>
       </c>
       <c r="C67" t="n">
         <v>27.68</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>24/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>BIANCA DE FATIMA MACHADO</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>27.68</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TE675018240BR</t>
+          <t>TE675018222BR</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>108412</v>
+        <v>108452</v>
       </c>
       <c r="C68" t="n">
-        <v>48.8</v>
+        <v>27.68</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1732,18 +2653,21 @@
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TE675019072BR</t>
+          <t>TE675018240BR</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>110610</v>
+        <v>108412</v>
       </c>
       <c r="C69" t="n">
-        <v>56.7</v>
+        <v>48.8</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1751,205 +2675,358 @@
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TE675018806BR</t>
+          <t>TE675019072BR</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>110264</v>
+        <v>110610</v>
       </c>
       <c r="C70" t="n">
-        <v>27.68</v>
+        <v>56.7</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>03/04/2023 18:15</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>VITORIA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>56.7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TE675018721BR</t>
+          <t>TE675018806BR</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>109685</v>
+        <v>110264</v>
       </c>
       <c r="C71" t="n">
         <v>27.68</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>PAULA MONDRONI</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>27.68</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TE675018602BR</t>
+          <t>TE675018721BR</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>109495</v>
+        <v>109685</v>
       </c>
       <c r="C72" t="n">
-        <v>27.69</v>
+        <v>27.68</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>VALERIA CRISTINA</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>27.68</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TE675018925BR</t>
+          <t>TE675018602BR</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>110262</v>
+        <v>109495</v>
       </c>
       <c r="C73" t="n">
-        <v>27.72</v>
+        <v>27.69</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>CLAUDIA PERUTZ</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1.300000000000001</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TE675019015BR</t>
+          <t>TE675018925BR</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>110397</v>
+        <v>110262</v>
       </c>
       <c r="C74" t="n">
-        <v>12.18</v>
+        <v>27.72</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>MARIANA ARENO</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1.329999999999998</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TE675019245BR</t>
+          <t>TE675019015BR</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>111016</v>
+        <v>110397</v>
       </c>
       <c r="C75" t="n">
-        <v>54.75</v>
+        <v>12.18</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>31/03/2023 18:05</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>CRISLAYNI DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TE675019214BR</t>
+          <t>TE675019245BR</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>110929</v>
+        <v>111016</v>
       </c>
       <c r="C76" t="n">
-        <v>27.73</v>
+        <v>54.75</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>VANESSA NOVAES</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>54.75</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>QP060270455BR</t>
+          <t>TE675019214BR</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>108656</v>
+        <v>110929</v>
       </c>
       <c r="C77" t="n">
-        <v>20.39</v>
+        <v>27.73</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>MARIANA PAFUME DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>27.73</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>QP060270725BR</t>
+          <t>QP060270455BR</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>110038</v>
+        <v>108656</v>
       </c>
       <c r="C78" t="n">
-        <v>28.21</v>
+        <v>20.39</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>JOICELI SEMESS</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2.120000000000001</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TE675018236BR</t>
+          <t>QP060270725BR</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>108454</v>
+        <v>110038</v>
       </c>
       <c r="C79" t="n">
-        <v>27.75</v>
+        <v>28.21</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>MARLENE FERREIRA</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1.359999999999999</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TE675018182BR</t>
+          <t>TE675018236BR</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>108417</v>
+        <v>108454</v>
       </c>
       <c r="C80" t="n">
         <v>27.75</v>
@@ -1960,18 +3037,21 @@
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>QC338196265BR</t>
+          <t>TE675018182BR</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>108040</v>
+        <v>108417</v>
       </c>
       <c r="C81" t="n">
-        <v>23.25</v>
+        <v>27.75</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1979,18 +3059,21 @@
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>QP060270668BR</t>
+          <t>QC338196265BR</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>109483</v>
+        <v>108040</v>
       </c>
       <c r="C82" t="n">
-        <v>22.81</v>
+        <v>23.25</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1998,56 +3081,89 @@
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>QP060270447BR</t>
+          <t>QP060270668BR</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>108667</v>
+        <v>109483</v>
       </c>
       <c r="C83" t="n">
-        <v>24.18</v>
+        <v>22.81</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>STEFANE ESTEVES</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1.389999999999997</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>TE675018205BR</t>
+          <t>QP060270447BR</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>108306</v>
+        <v>108667</v>
       </c>
       <c r="C84" t="n">
-        <v>27.82</v>
+        <v>24.18</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>THAYNARA REIS</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2.300000000000001</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>QP060270521BR</t>
+          <t>TE675018205BR</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>108782</v>
+        <v>108306</v>
       </c>
       <c r="C85" t="n">
-        <v>28.3</v>
+        <v>27.82</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2055,37 +3171,55 @@
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>QP060270420BR</t>
+          <t>QP060270521BR</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>108327</v>
+        <v>108782</v>
       </c>
       <c r="C86" t="n">
         <v>28.3</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>21/03/2023 16:07</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>CAROLINA PRESTES</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>0.879999999999999</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>QP060270606BR</t>
+          <t>QP060270420BR</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>109687</v>
+        <v>108327</v>
       </c>
       <c r="C87" t="n">
-        <v>17.44</v>
+        <v>28.3</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2093,550 +3227,973 @@
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TE675019302BR</t>
+          <t>QP060270606BR</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>111211</v>
+        <v>109687</v>
       </c>
       <c r="C88" t="n">
-        <v>36.6</v>
+        <v>17.44</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>CLAUDIO SANTOS</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1.450000000000001</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TE675018871BR</t>
+          <t>TE675019302BR</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>110233</v>
+        <v>111211</v>
       </c>
       <c r="C89" t="n">
-        <v>27.95</v>
+        <v>36.6</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>10/04/2023 18:02</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>LARISSA FARIA</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1.460000000000001</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>QP060270552BR</t>
+          <t>TE675018871BR</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>109094</v>
+        <v>110233</v>
       </c>
       <c r="C90" t="n">
-        <v>27.48</v>
+        <v>27.95</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>GREICE MELO</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1.559999999999999</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TE675018386BR</t>
+          <t>QP060270552BR</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>109141</v>
+        <v>109094</v>
       </c>
       <c r="C91" t="n">
-        <v>20.92</v>
+        <v>27.48</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>22/03/2023 18:02</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>NIVIA ALENCAR</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1.010000000000002</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TE675018284BR</t>
+          <t>TE675018386BR</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>108630</v>
+        <v>109141</v>
       </c>
       <c r="C92" t="n">
-        <v>11.3</v>
+        <v>20.92</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>22/03/2023 18:02</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>VANESSA LUIZA RODRIGUES</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>0.5600000000000023</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>QP060270827BR</t>
+          <t>TE675018284BR</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>110707</v>
+        <v>108630</v>
       </c>
       <c r="C93" t="n">
-        <v>17.6</v>
+        <v>11.3</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>EMANUELA FRANCA</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1.100000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TE675018899BR</t>
+          <t>QP060270827BR</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>110280</v>
+        <v>110707</v>
       </c>
       <c r="C94" t="n">
-        <v>28.04</v>
+        <v>17.6</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>03/04/2023 18:15</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>JAINE DARIVA</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1.610000000000001</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TE675018973BR</t>
+          <t>TE675018899BR</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>110276</v>
+        <v>110280</v>
       </c>
       <c r="C95" t="n">
         <v>28.04</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>HELEN VASCONCELOS</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>28.04</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TE675018749BR</t>
+          <t>TE675018973BR</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>109688</v>
+        <v>110276</v>
       </c>
       <c r="C96" t="n">
-        <v>57.07</v>
+        <v>28.04</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>PALOMA ESTEVES</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>28.04</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TE675018409BR</t>
+          <t>TE675018749BR</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>109198</v>
+        <v>109688</v>
       </c>
       <c r="C97" t="n">
-        <v>38.6</v>
+        <v>57.07</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>JOYCE PEIXOTO</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>57.07</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TE675018267BR</t>
+          <t>TE675018409BR</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>108622</v>
+        <v>109198</v>
       </c>
       <c r="C98" t="n">
-        <v>28.04</v>
+        <v>38.6</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>23/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>GIOVANNA MORSCH</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>38.6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TE675019069BR</t>
+          <t>TE675018267BR</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>110611</v>
+        <v>108622</v>
       </c>
       <c r="C99" t="n">
-        <v>28.03</v>
+        <v>28.04</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>BEATRIZ MACIEL</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>28.04</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TE675019109BR</t>
+          <t>TE675019069BR</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>110612</v>
+        <v>110611</v>
       </c>
       <c r="C100" t="n">
-        <v>38.6</v>
+        <v>28.03</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>03/04/2023 18:15</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>MARCELA GONCALVES</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>28.03</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>QP060270889BR</t>
+          <t>TE675019109BR</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>111021</v>
+        <v>110612</v>
       </c>
       <c r="C101" t="n">
-        <v>23.17</v>
+        <v>38.6</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>03/04/2023 18:15</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>MARCIA SA</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>38.6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TE675019293BR</t>
+          <t>QP060270889BR</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>111154</v>
+        <v>111021</v>
       </c>
       <c r="C102" t="n">
-        <v>38.7</v>
+        <v>23.17</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>STEFANE ESTEVES</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>QP060270875BR</t>
+          <t>TE675019293BR</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>110861</v>
+        <v>111154</v>
       </c>
       <c r="C103" t="n">
-        <v>17.62</v>
+        <v>38.7</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>10/04/2023 18:02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>GEYSA RIEKHOF</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>38.7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>QP060270495BR</t>
+          <t>QP060270875BR</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>108662</v>
+        <v>110861</v>
       </c>
       <c r="C104" t="n">
-        <v>28.66</v>
+        <v>17.62</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>15.83</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>05/04/2023 18:03</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>ELISABETH SEQUIM</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1.790000000000001</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>QP060270858BR</t>
+          <t>QP060270495BR</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>110843</v>
+        <v>108662</v>
       </c>
       <c r="C105" t="n">
-        <v>17.86</v>
+        <v>28.66</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>21/03/2023 16:07</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>JACYARA ARAUJO</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1.239999999999998</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TE675019086BR</t>
+          <t>QP060270858BR</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>110584</v>
+        <v>110843</v>
       </c>
       <c r="C106" t="n">
-        <v>30.55</v>
+        <v>17.86</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>04/04/2023 18:17</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>LIVIA XAVIER</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1.869999999999999</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TE675019126BR</t>
+          <t>TE675019086BR</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>110791</v>
+        <v>110584</v>
       </c>
       <c r="C107" t="n">
-        <v>11.63</v>
+        <v>30.55</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>03/04/2023 18:15</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>LUIS FERNANDO</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1.940000000000001</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>QP060270835BR</t>
+          <t>TE675019126BR</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>110761</v>
+        <v>110791</v>
       </c>
       <c r="C108" t="n">
-        <v>20.41</v>
+        <v>11.63</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>04/04/2023 18:17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>THAYNARA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1.950000000000001</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TE675018704BR</t>
+          <t>QP060270835BR</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>109513</v>
+        <v>110761</v>
       </c>
       <c r="C109" t="n">
-        <v>30.66</v>
+        <v>20.41</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>03/04/2023 17:07</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>CHRISTIANE LEITE</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1.989999999999998</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TE675019333BR</t>
+          <t>TE675018704BR</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>111533</v>
+        <v>109513</v>
       </c>
       <c r="C110" t="n">
-        <v>12.9</v>
+        <v>30.66</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>CAUE TARCINALIE</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2.050000000000001</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TE675018474BR</t>
+          <t>TE675019333BR</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>109287</v>
+        <v>111533</v>
       </c>
       <c r="C111" t="n">
-        <v>11.8</v>
+        <v>12.9</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>11/04/2023 18:11</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>JOSILAINE BUBACH</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3.220000000000001</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>QP060270570BR</t>
+          <t>TE675018474BR</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>109277</v>
+        <v>109287</v>
       </c>
       <c r="C112" t="n">
-        <v>20.03</v>
+        <v>11.8</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>24/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>FABIO GOMES</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1.600000000000001</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TE675018457BR</t>
+          <t>QP060270570BR</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>109176</v>
+        <v>109277</v>
       </c>
       <c r="C113" t="n">
-        <v>28.53</v>
+        <v>20.03</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>24/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>CAMILLA FONTES</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1.760000000000002</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TE675018995BR</t>
+          <t>TE675018457BR</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>110231</v>
+        <v>109176</v>
       </c>
       <c r="C114" t="n">
-        <v>59.89</v>
+        <v>28.53</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>23/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>JULIANA BERTOZZI</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>0.7100000000000009</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>QP060270402BR</t>
+          <t>TE675018995BR</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>108331</v>
+        <v>110231</v>
       </c>
       <c r="C115" t="n">
-        <v>23.7</v>
+        <v>59.89</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>31/03/2023 18:05</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>ANDREA MARQUES</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>59.89</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TE675018580BR</t>
+          <t>QP060270402BR</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>109561</v>
+        <v>108331</v>
       </c>
       <c r="C116" t="n">
-        <v>28.69</v>
+        <v>23.7</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2644,170 +4201,293 @@
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>QP060270699BR</t>
+          <t>TE675018580BR</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>110086</v>
+        <v>109561</v>
       </c>
       <c r="C117" t="n">
-        <v>18.3</v>
+        <v>28.69</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>MICHELLE MENDONCA</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2.300000000000001</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TE675019347BR</t>
+          <t>QP060270699BR</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>111465</v>
+        <v>110086</v>
       </c>
       <c r="C118" t="n">
-        <v>21.64</v>
+        <v>18.3</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>29/03/2023 16:01</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>UELTON JORGE</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TE675018298BR</t>
+          <t>TE675019347BR</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>108638</v>
+        <v>111465</v>
       </c>
       <c r="C119" t="n">
-        <v>12.05</v>
+        <v>21.64</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>11/04/2023 18:11</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>JUSSARA DE SOUZA BOLZAN</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2.330000000000002</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TE675018783BR</t>
+          <t>TE675018298BR</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>110097</v>
+        <v>108638</v>
       </c>
       <c r="C120" t="n">
-        <v>29.92</v>
+        <v>12.05</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>LUCINEIA ARPINI</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1.850000000000001</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TE675019435BR</t>
+          <t>TE675018783BR</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>111915</v>
+        <v>110097</v>
       </c>
       <c r="C121" t="n">
-        <v>12.12</v>
+        <v>29.92</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>29/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>ISABEL RIBEIRO</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3.530000000000001</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TE675018307BR</t>
+          <t>TE675019435BR</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>108623</v>
+        <v>111915</v>
       </c>
       <c r="C122" t="n">
-        <v>28.85</v>
+        <v>12.12</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>14/04/2023 18:24</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>ALINE CHAGAS</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TE675018620BR</t>
+          <t>TE675018307BR</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>109552</v>
+        <v>108623</v>
       </c>
       <c r="C123" t="n">
-        <v>12.14</v>
+        <v>28.85</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>MATHEUS SILVA</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>28.85</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TE675018219BR</t>
+          <t>TE675018620BR</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>108504</v>
+        <v>109552</v>
       </c>
       <c r="C124" t="n">
         <v>12.14</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>CAMILA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>12.14</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TE675018664BR</t>
+          <t>TE675018219BR</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>109693</v>
+        <v>108504</v>
       </c>
       <c r="C125" t="n">
-        <v>39.41</v>
+        <v>12.14</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2815,94 +4495,157 @@
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>QP060270711BR</t>
+          <t>TE675018664BR</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>110138</v>
+        <v>109693</v>
       </c>
       <c r="C126" t="n">
-        <v>29.33</v>
+        <v>39.41</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>ROBERTA HEUSI</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>39.41</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>QP060270518BR</t>
+          <t>QP060270711BR</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>108945</v>
+        <v>110138</v>
       </c>
       <c r="C127" t="n">
-        <v>20.97</v>
+        <v>29.33</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>DANIELA DOS S BEZERRA</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2.479999999999997</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TE675019418BR</t>
+          <t>QP060270518BR</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>111867</v>
+        <v>108945</v>
       </c>
       <c r="C128" t="n">
-        <v>30.06</v>
+        <v>20.97</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>21/03/2023 16:07</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>PAMELA FERNANDES</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2.149999999999999</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>TE675018179BR</t>
+          <t>TE675019418BR</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>108406</v>
+        <v>111867</v>
       </c>
       <c r="C129" t="n">
-        <v>20.75</v>
+        <v>30.06</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>13/04/2023 18:14</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>MARIA GOMES</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>30.06</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>QP060270708BR</t>
+          <t>TE675018179BR</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>110085</v>
+        <v>108406</v>
       </c>
       <c r="C130" t="n">
-        <v>20.65</v>
+        <v>20.75</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2910,56 +4653,89 @@
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TE675019280BR</t>
+          <t>QP060270708BR</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>111219</v>
+        <v>110085</v>
       </c>
       <c r="C131" t="n">
-        <v>30.11</v>
+        <v>20.65</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>29/03/2023 16:01</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>LARA SCHOWAMBACH</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2.599999999999998</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>QP060270481BR</t>
+          <t>TE675019280BR</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>108554</v>
+        <v>111219</v>
       </c>
       <c r="C132" t="n">
-        <v>29.49</v>
+        <v>30.11</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>10/04/2023 18:02</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>LUCIANA PIMENTEL</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3.719999999999999</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TE675019188BR</t>
+          <t>QP060270481BR</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>110963</v>
+        <v>108554</v>
       </c>
       <c r="C133" t="n">
-        <v>29.02</v>
+        <v>29.49</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2967,113 +4743,191 @@
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>QP060270795BR</t>
+          <t>TE675019188BR</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>110497</v>
+        <v>110963</v>
       </c>
       <c r="C134" t="n">
-        <v>22.75</v>
+        <v>29.02</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>PRISCILA YUMI YABIKU</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>29.02</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TE675019378BR</t>
+          <t>QP060270795BR</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>111754</v>
+        <v>110497</v>
       </c>
       <c r="C135" t="n">
-        <v>12.39</v>
+        <v>22.75</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>31/03/2023 18:05</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>ANNA VIANNA</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7.379999999999999</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TE675019228BR</t>
+          <t>TE675019378BR</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>111015</v>
+        <v>111754</v>
       </c>
       <c r="C136" t="n">
-        <v>44.57</v>
+        <v>12.39</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>13/04/2023 18:14</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>DANIELLA PORTO</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2.710000000000001</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>QP060270623BR</t>
+          <t>TE675019228BR</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>109695</v>
+        <v>111015</v>
       </c>
       <c r="C137" t="n">
-        <v>24.23</v>
+        <v>44.57</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>ROBERTA MARIA</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>44.57</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TE675018151BR</t>
+          <t>QP060270623BR</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>108022</v>
+        <v>109695</v>
       </c>
       <c r="C138" t="n">
-        <v>32.97</v>
+        <v>24.23</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>JUNIA FERREIRA</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2.809999999999999</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TE675019381BR</t>
+          <t>TE675018151BR</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>111815</v>
+        <v>108022</v>
       </c>
       <c r="C139" t="n">
-        <v>30.33</v>
+        <v>32.97</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3081,284 +4935,497 @@
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>QP060270464BR</t>
+          <t>TE675019381BR</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>108632</v>
+        <v>111815</v>
       </c>
       <c r="C140" t="n">
-        <v>28.8</v>
+        <v>30.33</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>13/04/2023 18:14</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>PAULO FERREIRA</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2.829999999999998</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>QP060270549BR</t>
+          <t>QP060270464BR</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>109103</v>
+        <v>108632</v>
       </c>
       <c r="C141" t="n">
-        <v>21.31</v>
+        <v>28.8</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>20/03/2023 18:00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>ANA RITA DE CASSIA</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2.330000000000002</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>TE675019143BR</t>
+          <t>QP060270549BR</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>110916</v>
+        <v>109103</v>
       </c>
       <c r="C142" t="n">
-        <v>30.4</v>
+        <v>21.31</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>22/03/2023 18:02</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>SARA COSTA</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2.489999999999998</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>QP060270929BR</t>
+          <t>TE675019143BR</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>111588</v>
+        <v>110916</v>
       </c>
       <c r="C143" t="n">
-        <v>28.95</v>
+        <v>30.4</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>05/04/2023 18:03</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>LUCIA FONSECA</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>QP060270756BR</t>
+          <t>QP060270929BR</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>110265</v>
+        <v>111588</v>
       </c>
       <c r="C144" t="n">
-        <v>20.95</v>
+        <v>28.95</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>12/04/2023 16:51</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>ELIZA  NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3.029999999999998</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TE675018908BR</t>
+          <t>QP060270756BR</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>110263</v>
+        <v>110265</v>
       </c>
       <c r="C145" t="n">
-        <v>29.45</v>
+        <v>20.95</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>MARIA CLARA CASTELLOES</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>0.4700000000000024</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>QP060270773BR</t>
+          <t>TE675018908BR</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>110173</v>
+        <v>110263</v>
       </c>
       <c r="C146" t="n">
-        <v>24.6</v>
+        <v>29.45</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>DENISE CHAMAS</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>29.45</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>QP060270946BR</t>
+          <t>QP060270773BR</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>111970</v>
+        <v>110173</v>
       </c>
       <c r="C147" t="n">
-        <v>22.35</v>
+        <v>24.6</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>JONAS VIANA</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3.18</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TE675019262BR</t>
+          <t>QP060270946BR</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>110928</v>
+        <v>111970</v>
       </c>
       <c r="C148" t="n">
-        <v>54.76</v>
+        <v>22.35</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>14/04/2023 16:25</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>FABIANA CERQUEIRA</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3.170000000000002</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TE675019024BR</t>
+          <t>TE675019262BR</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>110708</v>
+        <v>110928</v>
       </c>
       <c r="C149" t="n">
-        <v>12.98</v>
+        <v>54.76</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>CYNTHIA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>54.76</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TE675018678BR</t>
+          <t>TE675019024BR</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>109633</v>
+        <v>110708</v>
       </c>
       <c r="C150" t="n">
-        <v>45.13</v>
+        <v>12.98</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>03/04/2023 18:15</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>CASSIANA FREITAS</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3.300000000000001</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>QP060270637BR</t>
+          <t>TE675018678BR</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>109779</v>
+        <v>109633</v>
       </c>
       <c r="C151" t="n">
-        <v>30.67</v>
+        <v>45.13</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>VIVIANE DUARTE</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>45.13</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TE675018695BR</t>
+          <t>QP060270637BR</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>109501</v>
+        <v>109779</v>
       </c>
       <c r="C152" t="n">
-        <v>29.72</v>
+        <v>30.67</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>PATRICIA PAVIN</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4.75</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>QC338196248BR</t>
+          <t>TE675018695BR</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>108163</v>
+        <v>109501</v>
       </c>
       <c r="C153" t="n">
-        <v>23.1</v>
+        <v>29.72</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>FILLIPE NUNES</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3.329999999999998</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TE675018528BR</t>
+          <t>QC338196248BR</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>109311</v>
+        <v>108163</v>
       </c>
       <c r="C154" t="n">
-        <v>31.03</v>
+        <v>23.1</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3366,151 +5433,259 @@
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TE675019165BR</t>
+          <t>TE675018528BR</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>111020</v>
+        <v>109311</v>
       </c>
       <c r="C155" t="n">
-        <v>29.96</v>
+        <v>31.03</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>24/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>RACHELLE RODRIGUES</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>31.03</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>QP060270742BR</t>
+          <t>TE675019165BR</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>110182</v>
+        <v>111020</v>
       </c>
       <c r="C156" t="n">
-        <v>30.52</v>
+        <v>29.96</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>CLAUDIA SAYAS</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3.57</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TE675019395BR</t>
+          <t>QP060270742BR</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>111733</v>
+        <v>110182</v>
       </c>
       <c r="C157" t="n">
-        <v>30.09</v>
+        <v>30.52</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3.669999999999998</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TE675019231BR</t>
+          <t>TE675019395BR</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>110936</v>
+        <v>111733</v>
       </c>
       <c r="C158" t="n">
-        <v>30.14</v>
+        <v>30.09</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>13/04/2023 18:14</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>THAIS ALVES</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>3.699999999999999</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TE675018770BR</t>
+          <t>TE675019231BR</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>110045</v>
+        <v>110936</v>
       </c>
       <c r="C159" t="n">
-        <v>13.46</v>
+        <v>30.14</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>ANA PAULA</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>30.14</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TE675018837BR</t>
+          <t>TE675018770BR</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>110218</v>
+        <v>110045</v>
       </c>
       <c r="C160" t="n">
-        <v>24.43</v>
+        <v>13.46</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>29/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>KARLA HEMERLY</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3.780000000000001</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>QC338196251BR</t>
+          <t>TE675018837BR</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>108026</v>
+        <v>110218</v>
       </c>
       <c r="C161" t="n">
-        <v>22.31</v>
+        <v>24.43</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>AMANDHA CICILIOTTI</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5.609999999999999</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>QP060270932BR</t>
+          <t>QC338196251BR</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>111599</v>
+        <v>108026</v>
       </c>
       <c r="C162" t="n">
-        <v>25.46</v>
+        <v>22.31</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3518,37 +5693,55 @@
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>QP060270416BR</t>
+          <t>QP060270932BR</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>108440</v>
+        <v>111599</v>
       </c>
       <c r="C163" t="n">
-        <v>35.91</v>
+        <v>25.46</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>12/04/2023 16:51</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>CHERRYNE ZUCCON</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4.039999999999999</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>QP060270915BR</t>
+          <t>QP060270416BR</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>111485</v>
+        <v>108440</v>
       </c>
       <c r="C164" t="n">
-        <v>20.1</v>
+        <v>35.91</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3556,151 +5749,259 @@
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TE675019364BR</t>
+          <t>QP060270915BR</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>111753</v>
+        <v>111485</v>
       </c>
       <c r="C165" t="n">
-        <v>31.64</v>
+        <v>20.1</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>11/04/2023 18:11</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>VANESSA FOEGER</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4.110000000000001</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TE675018735BR</t>
+          <t>TE675019364BR</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>109756</v>
+        <v>111753</v>
       </c>
       <c r="C166" t="n">
-        <v>13.94</v>
+        <v>31.64</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>13/04/2023 18:14</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>MARIANA TORRES</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TE675019007BR</t>
+          <t>TE675018735BR</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>110395</v>
+        <v>109756</v>
       </c>
       <c r="C167" t="n">
-        <v>15.88</v>
+        <v>13.94</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>KARLA HEMERLY</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4.26</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>QP060270892BR</t>
+          <t>TE675019007BR</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>111091</v>
+        <v>110395</v>
       </c>
       <c r="C168" t="n">
-        <v>31.77</v>
+        <v>15.88</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>31/03/2023 18:05</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>MARIA DO SOCORRO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>15.88</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>QP060270685BR</t>
+          <t>QP060270892BR</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>109931</v>
+        <v>111091</v>
       </c>
       <c r="C169" t="n">
-        <v>22.91</v>
+        <v>31.77</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>MAIRA MAGALHAES</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5.849999999999998</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>TE675018987BR</t>
+          <t>QP060270685BR</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>110496</v>
+        <v>109931</v>
       </c>
       <c r="C170" t="n">
-        <v>15.51</v>
+        <v>22.91</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>29/03/2023 16:01</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>MONIQUE GONCALVES</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>4.489999999999998</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TE675018797BR</t>
+          <t>TE675018987BR</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>109915</v>
+        <v>110496</v>
       </c>
       <c r="C171" t="n">
-        <v>44.96</v>
+        <v>15.51</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>31/03/2023 18:05</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>FLAVIA RIBEIRO</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5.83</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TE675018939BR</t>
+          <t>TE675018797BR</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>110137</v>
+        <v>109915</v>
       </c>
       <c r="C172" t="n">
-        <v>24.09</v>
+        <v>44.96</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3708,310 +6009,575 @@
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>QP060270813BR</t>
+          <t>TE675018939BR</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>110637</v>
+        <v>110137</v>
       </c>
       <c r="C173" t="n">
-        <v>20.76</v>
+        <v>24.09</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>KAROLINE CAMARGO</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4.780000000000001</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>TE675018845BR</t>
+          <t>QP060270813BR</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>110153</v>
+        <v>110637</v>
       </c>
       <c r="C174" t="n">
-        <v>33.42</v>
+        <v>20.76</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>03/04/2023 18:15</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>ADRIANA CEOLIN</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4.770000000000001</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>QP060270597BR</t>
+          <t>TE675018845BR</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>109496</v>
+        <v>110153</v>
       </c>
       <c r="C175" t="n">
-        <v>30.76</v>
+        <v>33.42</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>TAINA MIOTO</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7.030000000000001</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TE675019316BR</t>
+          <t>QP060270597BR</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>111142</v>
+        <v>109496</v>
       </c>
       <c r="C176" t="n">
-        <v>65.3</v>
+        <v>30.76</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>28/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>TATIANI PADILHA SANTOS</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>4.84</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>TE675019404BR</t>
+          <t>TE675019316BR</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>111734</v>
+        <v>111142</v>
       </c>
       <c r="C177" t="n">
-        <v>31.73</v>
+        <v>65.3</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>10/04/2023 18:02</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>KARINA SANTANA</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>QP060270787BR</t>
+          <t>TE675019404BR</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>110214</v>
+        <v>111734</v>
       </c>
       <c r="C178" t="n">
-        <v>24.62</v>
+        <v>31.73</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>13/04/2023 18:14</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>PRISCILA  A. SANTOS</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>31.73</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>QP060270800BR</t>
+          <t>QP060270787BR</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>110245</v>
+        <v>110214</v>
       </c>
       <c r="C179" t="n">
-        <v>34.79</v>
+        <v>24.62</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>FERNANDO LIMA</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6.73</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>TE675018545BR</t>
+          <t>QP060270800BR</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>109331</v>
+        <v>110245</v>
       </c>
       <c r="C180" t="n">
-        <v>57.53</v>
+        <v>34.79</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>31/03/2023 18:05</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>MONICA PAZ DE SOUZA</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7.939999999999998</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TE675019276BR</t>
+          <t>TE675018545BR</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>110931</v>
+        <v>109331</v>
       </c>
       <c r="C181" t="n">
-        <v>84.70999999999999</v>
+        <v>57.53</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>54.28</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>27/03/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>KELLY SANTOS</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TE675019038BR</t>
+          <t>TE675019276BR</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>110609</v>
+        <v>110931</v>
       </c>
       <c r="C182" t="n">
-        <v>33.84</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>06/04/2023 18:01</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>GABRIEL LIMA</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>84.70999999999999</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>QP060270583BR</t>
+          <t>TE675019038BR</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>109309</v>
+        <v>110609</v>
       </c>
       <c r="C183" t="n">
-        <v>26.18</v>
+        <v>33.84</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>03/04/2023 18:15</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>LUCIANA FURTADO</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>33.84</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>QP060270861BR</t>
+          <t>QP060270583BR</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>110907</v>
+        <v>109309</v>
       </c>
       <c r="C184" t="n">
-        <v>28.77</v>
+        <v>26.18</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>24/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>LETICIA SOUZA</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7.91</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>QP060270566BR</t>
+          <t>QP060270861BR</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>109179</v>
+        <v>110907</v>
       </c>
       <c r="C185" t="n">
-        <v>27.44</v>
+        <v>28.77</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>05/04/2023 18:03</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>VANESSA FREITAS</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7.349999999999998</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>QP060270739BR</t>
+          <t>QP060270566BR</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>110157</v>
+        <v>109179</v>
       </c>
       <c r="C186" t="n">
-        <v>39.91</v>
+        <v>27.44</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>23/03/2023 15:55</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>TATIANA VITORIO</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>9.170000000000002</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>TE675018148BR</t>
+          <t>QP060270739BR</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>108023</v>
+        <v>110157</v>
       </c>
       <c r="C187" t="n">
-        <v>53.29</v>
+        <v>39.91</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>FRANCISCA SUENIA</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>11.15</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>TE675018148BR</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>108023</v>
+      </c>
+      <c r="C188" t="n">
+        <v>53.29</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>ausente</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
           <t>QP060270760BR</t>
         </is>
       </c>
-      <c r="B188" t="n">
+      <c r="B189" t="n">
         <v>110259</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C189" t="n">
         <v>40.81</v>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>ausente</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>presente, mas com valor diferente</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>30/03/2023 18:04</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>MARIA GORETH</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>17.22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
